--- a/data/trans_dic/P54_A_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,95%</t>
+          <t>83,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>81,08%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>48,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>88,5%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,16; 51,28</t>
+          <t>33,37; 56,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,9; 83,71</t>
+          <t>74,77; 89,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,75; 85,75</t>
+          <t>77,96; 87,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,58; 52,45</t>
+          <t>37,9; 58,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,11; 91,62</t>
+          <t>80,91; 92,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,05; 94,19</t>
+          <t>88,84; 95,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,07; 49,8</t>
+          <t>38,62; 55,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,53; 86,69</t>
+          <t>80,21; 89,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,69; 89,25</t>
+          <t>85,35; 91,17</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>39,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>78,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>78,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>85,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>83,04%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,46; 44,21</t>
+          <t>33,3; 47,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,19; 78,33</t>
+          <t>72,62; 83,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,74; 82,49</t>
+          <t>74,64; 82,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>38,08; 45,57</t>
+          <t>32,12; 43,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,14; 88,94</t>
+          <t>81,24; 88,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,41; 90,61</t>
+          <t>83,6; 89,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,68; 43,52</t>
+          <t>34,18; 43,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,29; 82,55</t>
+          <t>78,49; 85,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,52; 85,82</t>
+          <t>80,3; 85,32</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,01%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>76,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>72,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>77,25%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 32,75</t>
+          <t>17,85; 30,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,58; 72,03</t>
+          <t>61,64; 74,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,64; 74,9</t>
+          <t>64,38; 75,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,73; 49,63</t>
+          <t>33,63; 46,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,36; 82,21</t>
+          <t>70,98; 81,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,89; 86,89</t>
+          <t>80,07; 87,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,08; 39,73</t>
+          <t>28,5; 37,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,56; 75,68</t>
+          <t>68,69; 76,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,77; 80,51</t>
+          <t>73,78; 80,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>70,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,0%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,5%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>85,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>78,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>82,5%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,92</t>
+          <t>33,57; 41,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,0; 75,16</t>
+          <t>65,5; 75,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,39; 79,44</t>
+          <t>72,17; 82,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,94; 46,28</t>
+          <t>42,45; 49,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,81; 86,08</t>
+          <t>82,6; 89,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,94; 89,21</t>
+          <t>84,48; 91,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,93; 41,94</t>
+          <t>38,88; 44,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,76; 80,09</t>
+          <t>74,94; 80,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,96; 84,02</t>
+          <t>79,09; 85,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36,39%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>73,56%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>76,9%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>43,4%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>87,49%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>78,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,3%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33,51; 39,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>70,43; 76,57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>74,22; 79,15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40,56; 45,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>81,62; 85,89</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>85,69; 88,97</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37,75; 41,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76,57; 80,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80,78; 83,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97390</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>271244</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>417872</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>96084</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>361046</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>561158</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>193474</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>632291</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>979030</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>69668; 118826</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>244112; 291772</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>390685; 440801</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>75470; 116297</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>335025; 381241</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>537574; 576647</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>157527; 226349</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>594007; 660404</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>944172; 1008557</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>488.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>841.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>246373</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>720457</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>925774</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>260914</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>826122</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1062139</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>507287</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1546579</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1987914</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>210300; 299595</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>667503; 766398</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>877648; 972196</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>221536; 300613</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>785401; 858891</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1018357; 1093527</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>451596; 568975</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1480368; 1605912</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1922352; 2042486</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>628.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>105426</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>483391</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>585082</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>209946</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>582472</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>781016</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>315373</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1065863</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1366097</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>80124; 138113</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>432873; 524335</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>538268; 627467</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>172970; 241331</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>540701; 618031</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>746428; 811333</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>274517; 361205</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1005588; 1126434</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1304732; 1416491</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>763.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>531.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>725492</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1003525</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>650860</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>827627</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1153977</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>652777</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1553118</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2157501</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1303637</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>651037; 801291</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>931075; 1067929</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>607100; 691406</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>768291; 895840</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1108868; 1195081</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>624180; 676518</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1457746; 1665149</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2071363; 2237229</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1249736; 1350982</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>850.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1006.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>624.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1098.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1408.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1079.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1948.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2414.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1174682</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2478618</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2579588</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1394571</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2923616</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3057089</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2569252</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5402234</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5636678</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1081768; 1284257</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2373158; 2579972</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2489438; 2654914</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1303104; 1477106</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2844342; 2993165</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2994413; 3109043</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2431505; 2689643</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5248741; 5527887</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5532320; 5734481</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>